--- a/Day 1/Exercises Answers.xlsx
+++ b/Day 1/Exercises Answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\Google Drive\Academic\USP\Teaching\IPSA\2019\Making Causal Critiques\Website\Causal_Critiques\Day 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academic\USP\Teaching\IPSA\Summer School 2024\Interpreting and Critiquing Causal Evidence\Website\Causal_Critiques\Day 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA9AAF7-9F84-4E59-818A-AE2C942930A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EA83DC-1C2B-4DF6-8DE3-00B2B21116DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{776020A3-7A97-430D-BAC8-616EFBD77424}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{776020A3-7A97-430D-BAC8-616EFBD77424}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
   <si>
     <t>Valid Arguments</t>
   </si>
@@ -173,15 +173,12 @@
   <si>
     <t>Unclear ('always')</t>
   </si>
-  <si>
-    <t>Consistent (if 60% hurt)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +202,14 @@
       <color rgb="FF333333"/>
       <name val="MathJax_Main"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,11 +231,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,9 +255,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +295,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -395,7 +401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -537,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,406 +551,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F033AC-82C9-4EF2-AA37-0E9E055D1FF3}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
-    <col min="7" max="8" width="30.08984375" customWidth="1"/>
-    <col min="9" max="9" width="3.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.06640625" customWidth="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" customWidth="1"/>
+    <col min="7" max="8" width="30.06640625" customWidth="1"/>
+    <col min="9" max="9" width="3.265625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.19921875" customWidth="1"/>
     <col min="12" max="12" width="27" customWidth="1"/>
-    <col min="13" max="13" width="26.81640625" customWidth="1"/>
-    <col min="14" max="14" width="28.81640625" customWidth="1"/>
+    <col min="13" max="13" width="26.796875" customWidth="1"/>
+    <col min="14" max="14" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="87">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -952,28 +673,331 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="171">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="228">
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
